--- a/dados.xlsx
+++ b/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/lucam1_al_insper_edu_br/Documents/C Dados/CD22-1/Projeto 1/22-1a-cd-p1-grupo_juliadn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/juliadn_al_insper_edu_br/Documents/Documentos/2 - CDados/Projeto1/22-1a-cd-p1-grupo_juliadn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_241AD21C79C31D8DEC75875FB35BFE45E12BE34B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D18A8619-049C-4F36-B019-406B04EFFAB9}"/>
+  <xr:revisionPtr revIDLastSave="474" documentId="11_241AD21C79C31D8DEC75875FB35BFE45E12BE34B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DECE4119-406E-43B1-A10D-EDA21CFD8EA9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -7306,9 +7306,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F451"/>
   <sheetViews>
-    <sheetView topLeftCell="A448" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F452" sqref="F452"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.77734375" customWidth="1"/>
+    <col min="3" max="3" width="157.77734375" customWidth="1"/>
+    <col min="4" max="4" width="2.109375" customWidth="1"/>
+    <col min="5" max="5" width="1.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -8392,7 +8401,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -8409,7 +8418,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -8426,7 +8435,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -8443,7 +8452,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -8460,7 +8469,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -8477,7 +8486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -8494,7 +8503,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -8511,7 +8520,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -8528,7 +8537,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -8545,7 +8554,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -8562,7 +8571,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -8579,7 +8588,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -8595,8 +8604,11 @@
       <c r="E76">
         <v>59</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -8612,8 +8624,11 @@
       <c r="E77">
         <v>10</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -8629,8 +8644,11 @@
       <c r="E78">
         <v>46</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -8646,8 +8664,11 @@
       <c r="E79">
         <v>41</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>21</v>
       </c>
@@ -8660,8 +8681,11 @@
       <c r="E80">
         <v>26</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -8677,8 +8701,11 @@
       <c r="E81">
         <v>54</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -8694,8 +8721,11 @@
       <c r="E82">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -8711,8 +8741,11 @@
       <c r="E83">
         <v>53</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>22</v>
       </c>
@@ -8728,8 +8761,11 @@
       <c r="E84">
         <v>33</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -8745,8 +8781,11 @@
       <c r="E85">
         <v>21</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -8762,8 +8801,11 @@
       <c r="E86">
         <v>33</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -8779,8 +8821,11 @@
       <c r="E87">
         <v>33</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -8796,8 +8841,11 @@
       <c r="E88">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -8813,8 +8861,11 @@
       <c r="E89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -8830,8 +8881,11 @@
       <c r="E90">
         <v>30</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -8847,8 +8901,11 @@
       <c r="E91">
         <v>67</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -8864,8 +8921,11 @@
       <c r="E92">
         <v>53</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -8881,8 +8941,11 @@
       <c r="E93">
         <v>34</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -8898,8 +8961,11 @@
       <c r="E94">
         <v>73</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -8915,8 +8981,11 @@
       <c r="E95">
         <v>16</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -8932,8 +9001,11 @@
       <c r="E96">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -8949,8 +9021,11 @@
       <c r="E97">
         <v>71</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>24</v>
       </c>
@@ -8966,8 +9041,11 @@
       <c r="E98">
         <v>12</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>25</v>
       </c>
@@ -8983,8 +9061,11 @@
       <c r="E99">
         <v>45</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -9000,8 +9081,11 @@
       <c r="E100">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -9017,8 +9101,11 @@
       <c r="E101">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -9034,8 +9121,11 @@
       <c r="E102">
         <v>74</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -9051,8 +9141,11 @@
       <c r="E103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -9068,8 +9161,11 @@
       <c r="E104">
         <v>68</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>26</v>
       </c>
@@ -9085,8 +9181,11 @@
       <c r="E105">
         <v>66</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -9102,8 +9201,11 @@
       <c r="E106">
         <v>49</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -9119,8 +9221,11 @@
       <c r="E107">
         <v>59</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -9136,8 +9241,11 @@
       <c r="E108">
         <v>35</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>22</v>
       </c>
@@ -9153,8 +9261,11 @@
       <c r="E109">
         <v>33</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>27</v>
       </c>
@@ -9170,8 +9281,11 @@
       <c r="E110">
         <v>10</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -9187,8 +9301,11 @@
       <c r="E111">
         <v>26</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -9204,8 +9321,11 @@
       <c r="E112">
         <v>53</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -9221,8 +9341,11 @@
       <c r="E113">
         <v>68</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -9238,8 +9361,11 @@
       <c r="E114">
         <v>30</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -9255,8 +9381,11 @@
       <c r="E115">
         <v>65</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -9272,8 +9401,11 @@
       <c r="E116">
         <v>66</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -9289,8 +9421,11 @@
       <c r="E117">
         <v>47</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -9306,8 +9441,11 @@
       <c r="E118">
         <v>54</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -9323,8 +9461,11 @@
       <c r="E119">
         <v>63</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -9340,8 +9481,11 @@
       <c r="E120">
         <v>70</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -9357,8 +9501,11 @@
       <c r="E121">
         <v>29</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>28</v>
       </c>
@@ -9374,8 +9521,11 @@
       <c r="E122">
         <v>18</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -9391,8 +9541,11 @@
       <c r="E123">
         <v>65</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -9408,8 +9561,11 @@
       <c r="E124">
         <v>26</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -9425,8 +9581,11 @@
       <c r="E125">
         <v>30</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -9442,8 +9601,11 @@
       <c r="E126">
         <v>9</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -9459,8 +9621,11 @@
       <c r="E127">
         <v>40</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -9476,8 +9641,11 @@
       <c r="E128">
         <v>12</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -9493,8 +9661,11 @@
       <c r="E129">
         <v>6</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -9510,8 +9681,11 @@
       <c r="E130">
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -9527,8 +9701,11 @@
       <c r="E131">
         <v>62</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -9544,8 +9721,11 @@
       <c r="E132">
         <v>35</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -9561,8 +9741,11 @@
       <c r="E133">
         <v>11</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -9578,8 +9761,11 @@
       <c r="E134">
         <v>69</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -9595,8 +9781,11 @@
       <c r="E135">
         <v>55</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -9612,8 +9801,11 @@
       <c r="E136">
         <v>38</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>30</v>
       </c>
@@ -9629,8 +9821,11 @@
       <c r="E137">
         <v>17</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -9646,8 +9841,11 @@
       <c r="E138">
         <v>45</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -9663,8 +9861,11 @@
       <c r="E139">
         <v>45</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -9680,8 +9881,11 @@
       <c r="E140">
         <v>70</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>22</v>
       </c>
@@ -9697,8 +9901,11 @@
       <c r="E141">
         <v>34</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -9714,8 +9921,11 @@
       <c r="E142">
         <v>39</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -9731,8 +9941,11 @@
       <c r="E143">
         <v>64</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -9748,8 +9961,11 @@
       <c r="E144">
         <v>60</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -9765,8 +9981,11 @@
       <c r="E145">
         <v>34</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -9782,8 +10001,11 @@
       <c r="E146">
         <v>66</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -9799,8 +10021,11 @@
       <c r="E147">
         <v>19</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -9816,8 +10041,11 @@
       <c r="E148">
         <v>26</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -9833,8 +10061,11 @@
       <c r="E149">
         <v>15</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -9850,8 +10081,11 @@
       <c r="E150">
         <v>52</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -9867,8 +10101,11 @@
       <c r="E151">
         <v>50</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -9884,8 +10121,11 @@
       <c r="E152">
         <v>16</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -9901,8 +10141,11 @@
       <c r="E153">
         <v>69</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -9918,8 +10161,11 @@
       <c r="E154">
         <v>19</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -9935,8 +10181,11 @@
       <c r="E155">
         <v>46</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -9952,8 +10201,11 @@
       <c r="E156">
         <v>24</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>12</v>
       </c>
@@ -9969,8 +10221,11 @@
       <c r="E157">
         <v>65</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -9986,8 +10241,11 @@
       <c r="E158">
         <v>15</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -10003,8 +10261,11 @@
       <c r="E159">
         <v>53</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>32</v>
       </c>
@@ -10020,8 +10281,11 @@
       <c r="E160">
         <v>55</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -10037,8 +10301,11 @@
       <c r="E161">
         <v>3</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -10054,8 +10321,11 @@
       <c r="E162">
         <v>12</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -10071,8 +10341,11 @@
       <c r="E163">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>14</v>
       </c>
@@ -10088,8 +10361,11 @@
       <c r="E164">
         <v>37</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -10105,8 +10381,11 @@
       <c r="E165">
         <v>25</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -10122,8 +10401,11 @@
       <c r="E166">
         <v>60</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -10139,8 +10421,11 @@
       <c r="E167">
         <v>66</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -10156,8 +10441,11 @@
       <c r="E168">
         <v>44</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -10173,8 +10461,11 @@
       <c r="E169">
         <v>69</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -10190,8 +10481,11 @@
       <c r="E170">
         <v>74</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -10207,8 +10501,11 @@
       <c r="E171">
         <v>18</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -10224,8 +10521,11 @@
       <c r="E172">
         <v>73</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -10241,8 +10541,11 @@
       <c r="E173">
         <v>41</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -10258,8 +10561,11 @@
       <c r="E174">
         <v>28</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>33</v>
       </c>
@@ -10275,8 +10581,11 @@
       <c r="E175">
         <v>38</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>23</v>
       </c>
@@ -10292,8 +10601,11 @@
       <c r="E176">
         <v>7</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -10309,8 +10621,11 @@
       <c r="E177">
         <v>63</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>12</v>
       </c>
@@ -10326,8 +10641,11 @@
       <c r="E178">
         <v>10</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>17</v>
       </c>
@@ -10343,8 +10661,11 @@
       <c r="E179">
         <v>69</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -10360,8 +10681,11 @@
       <c r="E180">
         <v>63</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>23</v>
       </c>
@@ -10377,8 +10701,11 @@
       <c r="E181">
         <v>20</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -10394,8 +10721,11 @@
       <c r="E182">
         <v>12</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>6</v>
       </c>
@@ -10411,8 +10741,11 @@
       <c r="E183">
         <v>34</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>23</v>
       </c>
@@ -10428,8 +10761,11 @@
       <c r="E184">
         <v>11</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -10445,8 +10781,11 @@
       <c r="E185">
         <v>10</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -10462,8 +10801,11 @@
       <c r="E186">
         <v>59</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>34</v>
       </c>
@@ -10479,8 +10821,11 @@
       <c r="E187">
         <v>62</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>8</v>
       </c>
@@ -10496,8 +10841,11 @@
       <c r="E188">
         <v>25</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>8</v>
       </c>
@@ -10513,8 +10861,11 @@
       <c r="E189">
         <v>60</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>10</v>
       </c>
@@ -10530,8 +10881,11 @@
       <c r="E190">
         <v>39</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>8</v>
       </c>
@@ -10547,8 +10901,11 @@
       <c r="E191">
         <v>16</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -10564,8 +10921,11 @@
       <c r="E192">
         <v>26</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -10581,8 +10941,11 @@
       <c r="E193">
         <v>75</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>8</v>
       </c>
@@ -10598,8 +10961,11 @@
       <c r="E194">
         <v>4</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>8</v>
       </c>
@@ -10615,8 +10981,11 @@
       <c r="E195">
         <v>72</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>8</v>
       </c>
@@ -10632,8 +11001,11 @@
       <c r="E196">
         <v>46</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>8</v>
       </c>
@@ -10649,8 +11021,11 @@
       <c r="E197">
         <v>69</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -10666,8 +11041,11 @@
       <c r="E198">
         <v>64</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>6</v>
       </c>
@@ -10683,8 +11061,11 @@
       <c r="E199">
         <v>30</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>12</v>
       </c>
@@ -10700,8 +11081,11 @@
       <c r="E200">
         <v>40</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>8</v>
       </c>
@@ -10717,8 +11101,11 @@
       <c r="E201">
         <v>53</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>8</v>
       </c>
@@ -10734,8 +11121,11 @@
       <c r="E202">
         <v>75</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>10</v>
       </c>
@@ -10751,8 +11141,11 @@
       <c r="E203">
         <v>36</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -10768,8 +11161,11 @@
       <c r="E204">
         <v>28</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>8</v>
       </c>
@@ -10785,8 +11181,11 @@
       <c r="E205">
         <v>29</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>10</v>
       </c>
@@ -10802,8 +11201,11 @@
       <c r="E206">
         <v>23</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>8</v>
       </c>
@@ -10819,8 +11221,11 @@
       <c r="E207">
         <v>9</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>6</v>
       </c>
@@ -10836,8 +11241,11 @@
       <c r="E208">
         <v>26</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>10</v>
       </c>
@@ -10853,8 +11261,11 @@
       <c r="E209">
         <v>7</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>8</v>
       </c>
@@ -10870,8 +11281,11 @@
       <c r="E210">
         <v>75</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -10887,8 +11301,11 @@
       <c r="E211">
         <v>65</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>14</v>
       </c>
@@ -10904,8 +11321,11 @@
       <c r="E212">
         <v>61</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>6</v>
       </c>
@@ -10921,8 +11341,11 @@
       <c r="E213">
         <v>14</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>6</v>
       </c>
@@ -10938,8 +11361,11 @@
       <c r="E214">
         <v>23</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -10955,8 +11381,11 @@
       <c r="E215">
         <v>49</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>10</v>
       </c>
@@ -10972,8 +11401,11 @@
       <c r="E216">
         <v>36</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>8</v>
       </c>
@@ -10989,8 +11421,11 @@
       <c r="E217">
         <v>29</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -11006,8 +11441,11 @@
       <c r="E218">
         <v>55</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>35</v>
       </c>
@@ -11023,8 +11461,11 @@
       <c r="E219">
         <v>12</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -11040,8 +11481,11 @@
       <c r="E220">
         <v>14</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>8</v>
       </c>
@@ -11057,8 +11501,11 @@
       <c r="E221">
         <v>10</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -11074,8 +11521,11 @@
       <c r="E222">
         <v>8</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>12</v>
       </c>
@@ -11091,8 +11541,11 @@
       <c r="E223">
         <v>5</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -11108,8 +11561,11 @@
       <c r="E224">
         <v>38</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>8</v>
       </c>
@@ -11125,8 +11581,11 @@
       <c r="E225">
         <v>31</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>8</v>
       </c>
@@ -11142,8 +11601,11 @@
       <c r="E226">
         <v>18</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>18</v>
       </c>
@@ -11159,8 +11621,11 @@
       <c r="E227">
         <v>2</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>18</v>
       </c>
@@ -11176,8 +11641,11 @@
       <c r="E228">
         <v>3</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>6</v>
       </c>
@@ -11193,8 +11661,11 @@
       <c r="E229">
         <v>2</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>10</v>
       </c>
@@ -11210,8 +11681,11 @@
       <c r="E230">
         <v>69</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>35</v>
       </c>
@@ -11227,8 +11701,11 @@
       <c r="E231">
         <v>21</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>8</v>
       </c>
@@ -11244,8 +11721,11 @@
       <c r="E232">
         <v>54</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>10</v>
       </c>
@@ -11261,8 +11741,11 @@
       <c r="E233">
         <v>56</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>6</v>
       </c>
@@ -11278,8 +11761,11 @@
       <c r="E234">
         <v>63</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>8</v>
       </c>
@@ -11295,8 +11781,11 @@
       <c r="E235">
         <v>18</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>8</v>
       </c>
@@ -11312,8 +11801,11 @@
       <c r="E236">
         <v>5</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>10</v>
       </c>
@@ -11329,8 +11821,11 @@
       <c r="E237">
         <v>48</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>8</v>
       </c>
@@ -11346,8 +11841,11 @@
       <c r="E238">
         <v>22</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>8</v>
       </c>
@@ -11363,8 +11861,11 @@
       <c r="E239">
         <v>68</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>25</v>
       </c>
@@ -11380,8 +11881,11 @@
       <c r="E240">
         <v>75</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>16</v>
       </c>
@@ -11397,8 +11901,11 @@
       <c r="E241">
         <v>7</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>22</v>
       </c>
@@ -11414,8 +11921,11 @@
       <c r="E242">
         <v>48</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>8</v>
       </c>
@@ -11431,8 +11941,11 @@
       <c r="E243">
         <v>66</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -11448,8 +11961,11 @@
       <c r="E244">
         <v>24</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -11465,8 +11981,11 @@
       <c r="E245">
         <v>3</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -11482,8 +12001,11 @@
       <c r="E246">
         <v>63</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>10</v>
       </c>
@@ -11499,8 +12021,11 @@
       <c r="E247">
         <v>60</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>10</v>
       </c>
@@ -11516,8 +12041,11 @@
       <c r="E248">
         <v>58</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -11533,8 +12061,11 @@
       <c r="E249">
         <v>22</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>8</v>
       </c>
@@ -11550,8 +12081,11 @@
       <c r="E250">
         <v>28</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>6</v>
       </c>
@@ -11567,8 +12101,11 @@
       <c r="E251">
         <v>71</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>8</v>
       </c>
@@ -11584,8 +12121,11 @@
       <c r="E252">
         <v>40</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>8</v>
       </c>
@@ -11601,8 +12141,11 @@
       <c r="E253">
         <v>61</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>10</v>
       </c>
@@ -11618,8 +12161,11 @@
       <c r="E254">
         <v>4</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>6</v>
       </c>
@@ -11635,8 +12181,11 @@
       <c r="E255">
         <v>71</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>10</v>
       </c>
@@ -11652,8 +12201,11 @@
       <c r="E256">
         <v>20</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>6</v>
       </c>
@@ -11669,8 +12221,11 @@
       <c r="E257">
         <v>74</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>8</v>
       </c>
@@ -11686,8 +12241,11 @@
       <c r="E258">
         <v>56</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>10</v>
       </c>
@@ -11703,8 +12261,11 @@
       <c r="E259">
         <v>29</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>8</v>
       </c>
@@ -11720,8 +12281,11 @@
       <c r="E260">
         <v>7</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>8</v>
       </c>
@@ -11737,8 +12301,11 @@
       <c r="E261">
         <v>45</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>35</v>
       </c>
@@ -11754,8 +12321,11 @@
       <c r="E262">
         <v>6</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>10</v>
       </c>
@@ -11771,8 +12341,11 @@
       <c r="E263">
         <v>11</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>6</v>
       </c>
@@ -11788,8 +12361,11 @@
       <c r="E264">
         <v>23</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>13</v>
       </c>
@@ -11805,8 +12381,11 @@
       <c r="E265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>36</v>
       </c>
@@ -11822,8 +12401,11 @@
       <c r="E266">
         <v>27</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>10</v>
       </c>
@@ -11839,8 +12421,11 @@
       <c r="E267">
         <v>20</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>10</v>
       </c>
@@ -11856,8 +12441,11 @@
       <c r="E268">
         <v>24</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>37</v>
       </c>
@@ -11870,8 +12458,11 @@
       <c r="E269">
         <v>52</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>8</v>
       </c>
@@ -11887,8 +12478,11 @@
       <c r="E270">
         <v>42</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>10</v>
       </c>
@@ -11904,8 +12498,11 @@
       <c r="E271">
         <v>59</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>10</v>
       </c>
@@ -11921,8 +12518,11 @@
       <c r="E272">
         <v>57</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>8</v>
       </c>
@@ -11938,8 +12538,11 @@
       <c r="E273">
         <v>15</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>11</v>
       </c>
@@ -11955,8 +12558,11 @@
       <c r="E274">
         <v>3</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>8</v>
       </c>
@@ -11972,8 +12578,11 @@
       <c r="E275">
         <v>74</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>7</v>
       </c>
@@ -11989,8 +12598,11 @@
       <c r="E276">
         <v>57</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>8</v>
       </c>
@@ -12006,8 +12618,11 @@
       <c r="E277">
         <v>31</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>30</v>
       </c>
@@ -12023,8 +12638,11 @@
       <c r="E278">
         <v>30</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>10</v>
       </c>
@@ -12040,8 +12658,11 @@
       <c r="E279">
         <v>42</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>6</v>
       </c>
@@ -12057,8 +12678,11 @@
       <c r="E280">
         <v>4</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -12074,8 +12698,11 @@
       <c r="E281">
         <v>74</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>8</v>
       </c>
@@ -12091,8 +12718,11 @@
       <c r="E282">
         <v>46</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>34</v>
       </c>
@@ -12105,8 +12735,11 @@
       <c r="E283">
         <v>57</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>8</v>
       </c>
@@ -12122,8 +12755,11 @@
       <c r="E284">
         <v>55</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>7</v>
       </c>
@@ -12139,8 +12775,11 @@
       <c r="E285">
         <v>30</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>8</v>
       </c>
@@ -12156,8 +12795,11 @@
       <c r="E286">
         <v>34</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>10</v>
       </c>
@@ -12173,8 +12815,11 @@
       <c r="E287">
         <v>34</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>8</v>
       </c>
@@ -12190,8 +12835,11 @@
       <c r="E288">
         <v>73</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>8</v>
       </c>
@@ -12207,8 +12855,11 @@
       <c r="E289">
         <v>40</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>8</v>
       </c>
@@ -12224,8 +12875,11 @@
       <c r="E290">
         <v>30</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>8</v>
       </c>
@@ -12241,8 +12895,11 @@
       <c r="E291">
         <v>48</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>7</v>
       </c>
@@ -12258,8 +12915,11 @@
       <c r="E292">
         <v>21</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>8</v>
       </c>
@@ -12275,8 +12935,11 @@
       <c r="E293">
         <v>8</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>14</v>
       </c>
@@ -12292,8 +12955,11 @@
       <c r="E294">
         <v>29</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>6</v>
       </c>
@@ -12309,8 +12975,11 @@
       <c r="E295">
         <v>23</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>10</v>
       </c>
@@ -12326,8 +12995,11 @@
       <c r="E296">
         <v>49</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>6</v>
       </c>
@@ -12343,8 +13015,11 @@
       <c r="E297">
         <v>57</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>11</v>
       </c>
@@ -12360,8 +13035,11 @@
       <c r="E298">
         <v>39</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>10</v>
       </c>
@@ -12377,8 +13055,11 @@
       <c r="E299">
         <v>57</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>15</v>
       </c>
@@ -12394,8 +13075,11 @@
       <c r="E300">
         <v>37</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>8</v>
       </c>
@@ -12411,8 +13095,11 @@
       <c r="E301">
         <v>37</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>8</v>
       </c>
@@ -12428,8 +13115,11 @@
       <c r="E302">
         <v>9</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>8</v>
       </c>
@@ -12445,8 +13135,11 @@
       <c r="E303">
         <v>36</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>6</v>
       </c>
@@ -12462,8 +13155,11 @@
       <c r="E304">
         <v>2</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>10</v>
       </c>
@@ -12479,8 +13175,11 @@
       <c r="E305">
         <v>59</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>19</v>
       </c>
@@ -12496,8 +13195,11 @@
       <c r="E306">
         <v>66</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>6</v>
       </c>
@@ -12513,8 +13215,11 @@
       <c r="E307">
         <v>26</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>10</v>
       </c>
@@ -12530,8 +13235,11 @@
       <c r="E308">
         <v>47</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>11</v>
       </c>
@@ -12547,8 +13255,11 @@
       <c r="E309">
         <v>71</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>10</v>
       </c>
@@ -12564,8 +13275,11 @@
       <c r="E310">
         <v>61</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>6</v>
       </c>
@@ -12581,8 +13295,11 @@
       <c r="E311">
         <v>27</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -12598,8 +13315,11 @@
       <c r="E312">
         <v>10</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>6</v>
       </c>
@@ -12615,8 +13335,11 @@
       <c r="E313">
         <v>6</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>8</v>
       </c>
@@ -12632,8 +13355,11 @@
       <c r="E314">
         <v>24</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>8</v>
       </c>
@@ -12649,8 +13375,11 @@
       <c r="E315">
         <v>50</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>10</v>
       </c>
@@ -12666,8 +13395,11 @@
       <c r="E316">
         <v>51</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>34</v>
       </c>
@@ -12683,8 +13415,11 @@
       <c r="E317">
         <v>11</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>8</v>
       </c>
@@ -12700,8 +13435,11 @@
       <c r="E318">
         <v>18</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>15</v>
       </c>
@@ -12717,8 +13455,11 @@
       <c r="E319">
         <v>55</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>8</v>
       </c>
@@ -12734,8 +13475,11 @@
       <c r="E320">
         <v>48</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>16</v>
       </c>
@@ -12751,8 +13495,11 @@
       <c r="E321">
         <v>40</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>10</v>
       </c>
@@ -12768,8 +13515,11 @@
       <c r="E322">
         <v>62</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>10</v>
       </c>
@@ -12785,8 +13535,11 @@
       <c r="E323">
         <v>17</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>8</v>
       </c>
@@ -12802,8 +13555,11 @@
       <c r="E324">
         <v>74</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>11</v>
       </c>
@@ -12819,8 +13575,11 @@
       <c r="E325">
         <v>30</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>6</v>
       </c>
@@ -12836,8 +13595,11 @@
       <c r="E326">
         <v>14</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>38</v>
       </c>
@@ -12853,8 +13615,11 @@
       <c r="E327">
         <v>13</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>10</v>
       </c>
@@ -12870,8 +13635,11 @@
       <c r="E328">
         <v>9</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F328">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>8</v>
       </c>
@@ -12887,8 +13655,11 @@
       <c r="E329">
         <v>74</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>8</v>
       </c>
@@ -12904,8 +13675,11 @@
       <c r="E330">
         <v>27</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>6</v>
       </c>
@@ -12921,8 +13695,11 @@
       <c r="E331">
         <v>71</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>39</v>
       </c>
@@ -12938,8 +13715,11 @@
       <c r="E332">
         <v>24</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>8</v>
       </c>
@@ -12955,8 +13735,11 @@
       <c r="E333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>8</v>
       </c>
@@ -12972,8 +13755,11 @@
       <c r="E334">
         <v>8</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>8</v>
       </c>
@@ -12989,8 +13775,11 @@
       <c r="E335">
         <v>60</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>8</v>
       </c>
@@ -13006,8 +13795,11 @@
       <c r="E336">
         <v>62</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>7</v>
       </c>
@@ -13023,8 +13815,11 @@
       <c r="E337">
         <v>62</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>8</v>
       </c>
@@ -13040,8 +13835,11 @@
       <c r="E338">
         <v>19</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>8</v>
       </c>
@@ -13057,8 +13855,11 @@
       <c r="E339">
         <v>72</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>8</v>
       </c>
@@ -13074,8 +13875,11 @@
       <c r="E340">
         <v>30</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>8</v>
       </c>
@@ -13091,8 +13895,11 @@
       <c r="E341">
         <v>69</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>12</v>
       </c>
@@ -13108,8 +13915,11 @@
       <c r="E342">
         <v>14</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -13125,8 +13935,11 @@
       <c r="E343">
         <v>68</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>8</v>
       </c>
@@ -13142,8 +13955,11 @@
       <c r="E344">
         <v>46</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>7</v>
       </c>
@@ -13159,8 +13975,11 @@
       <c r="E345">
         <v>56</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>8</v>
       </c>
@@ -13176,8 +13995,11 @@
       <c r="E346">
         <v>50</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>8</v>
       </c>
@@ -13193,8 +14015,11 @@
       <c r="E347">
         <v>60</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>8</v>
       </c>
@@ -13210,8 +14035,11 @@
       <c r="E348">
         <v>60</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>40</v>
       </c>
@@ -13227,8 +14055,11 @@
       <c r="E349">
         <v>37</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>10</v>
       </c>
@@ -13244,8 +14075,11 @@
       <c r="E350">
         <v>9</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>10</v>
       </c>
@@ -13261,8 +14095,11 @@
       <c r="E351">
         <v>28</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F351">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>41</v>
       </c>
@@ -13278,8 +14115,11 @@
       <c r="E352">
         <v>33</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>8</v>
       </c>
@@ -13295,8 +14135,11 @@
       <c r="E353">
         <v>5</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>8</v>
       </c>
@@ -13312,8 +14155,11 @@
       <c r="E354">
         <v>17</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>8</v>
       </c>
@@ -13329,8 +14175,11 @@
       <c r="E355">
         <v>67</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>42</v>
       </c>
@@ -13346,8 +14195,11 @@
       <c r="E356">
         <v>23</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>21</v>
       </c>
@@ -13363,8 +14215,11 @@
       <c r="E357">
         <v>24</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>10</v>
       </c>
@@ -13377,8 +14232,11 @@
       <c r="E358">
         <v>50</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>8</v>
       </c>
@@ -13394,8 +14252,11 @@
       <c r="E359">
         <v>35</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>8</v>
       </c>
@@ -13411,8 +14272,11 @@
       <c r="E360">
         <v>21</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F360">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>8</v>
       </c>
@@ -13428,8 +14292,11 @@
       <c r="E361">
         <v>51</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>8</v>
       </c>
@@ -13445,8 +14312,11 @@
       <c r="E362">
         <v>60</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>6</v>
       </c>
@@ -13462,8 +14332,11 @@
       <c r="E363">
         <v>2</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>8</v>
       </c>
@@ -13479,8 +14352,11 @@
       <c r="E364">
         <v>35</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>6</v>
       </c>
@@ -13496,8 +14372,11 @@
       <c r="E365">
         <v>49</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>8</v>
       </c>
@@ -13513,8 +14392,11 @@
       <c r="E366">
         <v>12</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F366">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>10</v>
       </c>
@@ -13530,8 +14412,11 @@
       <c r="E367">
         <v>15</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>8</v>
       </c>
@@ -13547,8 +14432,11 @@
       <c r="E368">
         <v>74</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>8</v>
       </c>
@@ -13564,8 +14452,11 @@
       <c r="E369">
         <v>28</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>12</v>
       </c>
@@ -13581,8 +14472,11 @@
       <c r="E370">
         <v>36</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>28</v>
       </c>
@@ -13598,8 +14492,11 @@
       <c r="E371">
         <v>58</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>10</v>
       </c>
@@ -13615,8 +14512,11 @@
       <c r="E372">
         <v>63</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>6</v>
       </c>
@@ -13632,8 +14532,11 @@
       <c r="E373">
         <v>43</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>8</v>
       </c>
@@ -13649,8 +14552,11 @@
       <c r="E374">
         <v>61</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>10</v>
       </c>
@@ -13666,8 +14572,11 @@
       <c r="E375">
         <v>19</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>43</v>
       </c>
@@ -13683,8 +14592,11 @@
       <c r="E376">
         <v>13</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>6</v>
       </c>
@@ -13700,8 +14612,11 @@
       <c r="E377">
         <v>44</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>8</v>
       </c>
@@ -13717,8 +14632,11 @@
       <c r="E378">
         <v>74</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>38</v>
       </c>
@@ -13734,8 +14652,11 @@
       <c r="E379">
         <v>14</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>8</v>
       </c>
@@ -13751,8 +14672,11 @@
       <c r="E380">
         <v>68</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>6</v>
       </c>
@@ -13768,8 +14692,11 @@
       <c r="E381">
         <v>64</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>10</v>
       </c>
@@ -13785,8 +14712,11 @@
       <c r="E382">
         <v>43</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>25</v>
       </c>
@@ -13802,8 +14732,11 @@
       <c r="E383">
         <v>20</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>7</v>
       </c>
@@ -13819,8 +14752,11 @@
       <c r="E384">
         <v>39</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>10</v>
       </c>
@@ -13836,8 +14772,11 @@
       <c r="E385">
         <v>33</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>43</v>
       </c>
@@ -13853,8 +14792,11 @@
       <c r="E386">
         <v>32</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>10</v>
       </c>
@@ -13870,8 +14812,11 @@
       <c r="E387">
         <v>13</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>8</v>
       </c>
@@ -13887,8 +14832,11 @@
       <c r="E388">
         <v>74</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>8</v>
       </c>
@@ -13904,8 +14852,11 @@
       <c r="E389">
         <v>11</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>44</v>
       </c>
@@ -13921,8 +14872,11 @@
       <c r="E390">
         <v>56</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>8</v>
       </c>
@@ -13938,8 +14892,11 @@
       <c r="E391">
         <v>75</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>8</v>
       </c>
@@ -13955,8 +14912,11 @@
       <c r="E392">
         <v>38</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>8</v>
       </c>
@@ -13972,8 +14932,11 @@
       <c r="E393">
         <v>73</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>8</v>
       </c>
@@ -13989,8 +14952,11 @@
       <c r="E394">
         <v>19</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>8</v>
       </c>
@@ -14006,8 +14972,11 @@
       <c r="E395">
         <v>58</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F395">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>8</v>
       </c>
@@ -14023,8 +14992,11 @@
       <c r="E396">
         <v>45</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>7</v>
       </c>
@@ -14040,8 +15012,11 @@
       <c r="E397">
         <v>21</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F397">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>7</v>
       </c>
@@ -14057,8 +15032,11 @@
       <c r="E398">
         <v>8</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>45</v>
       </c>
@@ -14074,8 +15052,11 @@
       <c r="E399">
         <v>24</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>23</v>
       </c>
@@ -14091,8 +15072,11 @@
       <c r="E400">
         <v>75</v>
       </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F400">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>10</v>
       </c>
@@ -14108,8 +15092,11 @@
       <c r="E401">
         <v>8</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>8</v>
       </c>
@@ -14125,8 +15112,11 @@
       <c r="E402">
         <v>19</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>12</v>
       </c>
@@ -14142,8 +15132,11 @@
       <c r="E403">
         <v>57</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>8</v>
       </c>
@@ -14159,8 +15152,11 @@
       <c r="E404">
         <v>62</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F404">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>7</v>
       </c>
@@ -14176,8 +15172,11 @@
       <c r="E405">
         <v>58</v>
       </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>8</v>
       </c>
@@ -14193,8 +15192,11 @@
       <c r="E406">
         <v>44</v>
       </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>10</v>
       </c>
@@ -14210,8 +15212,11 @@
       <c r="E407">
         <v>8</v>
       </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>26</v>
       </c>
@@ -14227,8 +15232,11 @@
       <c r="E408">
         <v>16</v>
       </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>8</v>
       </c>
@@ -14244,8 +15252,11 @@
       <c r="E409">
         <v>36</v>
       </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F409">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>8</v>
       </c>
@@ -14261,8 +15272,11 @@
       <c r="E410">
         <v>58</v>
       </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>10</v>
       </c>
@@ -14278,8 +15292,11 @@
       <c r="E411">
         <v>68</v>
       </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F411">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>6</v>
       </c>
@@ -14295,8 +15312,11 @@
       <c r="E412">
         <v>55</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>8</v>
       </c>
@@ -14312,8 +15332,11 @@
       <c r="E413">
         <v>11</v>
       </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F413">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>12</v>
       </c>
@@ -14329,8 +15352,11 @@
       <c r="E414">
         <v>36</v>
       </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F414">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>10</v>
       </c>
@@ -14343,8 +15369,11 @@
       <c r="E415">
         <v>35</v>
       </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>8</v>
       </c>
@@ -14360,8 +15389,11 @@
       <c r="E416">
         <v>52</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>10</v>
       </c>
@@ -14377,8 +15409,11 @@
       <c r="E417">
         <v>56</v>
       </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>10</v>
       </c>
@@ -14394,8 +15429,11 @@
       <c r="E418">
         <v>52</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>10</v>
       </c>
@@ -14411,8 +15449,11 @@
       <c r="E419">
         <v>64</v>
       </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>8</v>
       </c>
@@ -14428,8 +15469,11 @@
       <c r="E420">
         <v>45</v>
       </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>12</v>
       </c>
@@ -14445,8 +15489,11 @@
       <c r="E421">
         <v>20</v>
       </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>8</v>
       </c>
@@ -14462,8 +15509,11 @@
       <c r="E422">
         <v>41</v>
       </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>8</v>
       </c>
@@ -14479,8 +15529,11 @@
       <c r="E423">
         <v>66</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>8</v>
       </c>
@@ -14496,8 +15549,11 @@
       <c r="E424">
         <v>46</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>10</v>
       </c>
@@ -14513,8 +15569,11 @@
       <c r="E425">
         <v>22</v>
       </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>7</v>
       </c>
@@ -14530,8 +15589,11 @@
       <c r="E426">
         <v>32</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>10</v>
       </c>
@@ -14547,8 +15609,11 @@
       <c r="E427">
         <v>54</v>
       </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F427">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>23</v>
       </c>
@@ -14564,8 +15629,11 @@
       <c r="E428">
         <v>42</v>
       </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>12</v>
       </c>
@@ -14581,8 +15649,11 @@
       <c r="E429">
         <v>2</v>
       </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F429">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>10</v>
       </c>
@@ -14598,8 +15669,11 @@
       <c r="E430">
         <v>50</v>
       </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F430">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>10</v>
       </c>
@@ -14615,8 +15689,11 @@
       <c r="E431">
         <v>67</v>
       </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>7</v>
       </c>
@@ -14632,8 +15709,11 @@
       <c r="E432">
         <v>25</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>6</v>
       </c>
@@ -14649,8 +15729,11 @@
       <c r="E433">
         <v>44</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F433">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>10</v>
       </c>
@@ -14666,8 +15749,11 @@
       <c r="E434">
         <v>12</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>8</v>
       </c>
@@ -14683,8 +15769,11 @@
       <c r="E435">
         <v>22</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>10</v>
       </c>
@@ -14700,8 +15789,11 @@
       <c r="E436">
         <v>70</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>10</v>
       </c>
@@ -14717,8 +15809,11 @@
       <c r="E437">
         <v>25</v>
       </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>8</v>
       </c>
@@ -14734,8 +15829,11 @@
       <c r="E438">
         <v>70</v>
       </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>12</v>
       </c>
@@ -14751,8 +15849,11 @@
       <c r="E439">
         <v>35</v>
       </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>8</v>
       </c>
@@ -14768,8 +15869,11 @@
       <c r="E440">
         <v>67</v>
       </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>10</v>
       </c>
@@ -14785,8 +15889,11 @@
       <c r="E441">
         <v>56</v>
       </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>8</v>
       </c>
@@ -14802,8 +15909,11 @@
       <c r="E442">
         <v>70</v>
       </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>7</v>
       </c>
@@ -14819,8 +15929,11 @@
       <c r="E443">
         <v>45</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>8</v>
       </c>
@@ -14836,8 +15949,11 @@
       <c r="E444">
         <v>20</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>7</v>
       </c>
@@ -14853,8 +15969,11 @@
       <c r="E445">
         <v>68</v>
       </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>7</v>
       </c>
@@ -14870,8 +15989,11 @@
       <c r="E446">
         <v>7</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>8</v>
       </c>
@@ -14887,8 +16009,11 @@
       <c r="E447">
         <v>34</v>
       </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F447">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>8</v>
       </c>
@@ -14904,8 +16029,11 @@
       <c r="E448">
         <v>37</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F448">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>6</v>
       </c>
@@ -14921,8 +16049,11 @@
       <c r="E449">
         <v>5</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F449">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>7</v>
       </c>
@@ -14938,8 +16069,11 @@
       <c r="E450">
         <v>75</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F450">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>10</v>
       </c>
@@ -14954,6 +16088,9 @@
       </c>
       <c r="E451">
         <v>64</v>
+      </c>
+      <c r="F451">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -14965,9 +16102,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="C54" zoomScale="97" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.21875" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="4" max="4" width="0.88671875" customWidth="1"/>
+    <col min="5" max="6" width="9.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/juliadn_al_insper_edu_br/Documents/Documentos/2 - CDados/Projeto1/22-1a-cd-p1-grupo_juliadn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/lucam1_al_insper_edu_br/Documents/C Dados/CD22-1/Projeto 1/22-1a-cd-p1-grupo_juliadn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="474" documentId="11_241AD21C79C31D8DEC75875FB35BFE45E12BE34B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DECE4119-406E-43B1-A10D-EDA21CFD8EA9}"/>
+  <xr:revisionPtr revIDLastSave="480" documentId="11_241AD21C79C31D8DEC75875FB35BFE45E12BE34B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AB49299-BCDF-4443-9DE1-468557C85014}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -6897,7 +6897,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6915,6 +6915,14 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -6958,7 +6966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6966,6 +6974,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7306,8 +7315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F451"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F452" sqref="F452"/>
+    <sheetView tabSelected="1" topLeftCell="A421" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7315,8 +7324,8 @@
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
     <col min="2" max="2" width="46.77734375" customWidth="1"/>
     <col min="3" max="3" width="157.77734375" customWidth="1"/>
-    <col min="4" max="4" width="2.109375" customWidth="1"/>
-    <col min="5" max="5" width="1.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7355,6 +7364,9 @@
       <c r="E2">
         <v>4</v>
       </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -7372,6 +7384,9 @@
       <c r="E3">
         <v>31</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7389,6 +7404,9 @@
       <c r="E4">
         <v>46</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -7405,6 +7423,9 @@
       </c>
       <c r="E5">
         <v>28</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7423,6 +7444,9 @@
       <c r="E6">
         <v>3</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -7440,6 +7464,9 @@
       <c r="E7">
         <v>9</v>
       </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -7457,6 +7484,9 @@
       <c r="E8">
         <v>16</v>
       </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -7470,6 +7500,9 @@
       </c>
       <c r="E9">
         <v>52</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -7488,6 +7521,9 @@
       <c r="E10">
         <v>32</v>
       </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -7505,6 +7541,9 @@
       <c r="E11">
         <v>43</v>
       </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -7522,6 +7561,9 @@
       <c r="E12">
         <v>40</v>
       </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -7539,6 +7581,9 @@
       <c r="E13">
         <v>5</v>
       </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -7555,6 +7600,9 @@
       </c>
       <c r="E14">
         <v>40</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -7573,6 +7621,9 @@
       <c r="E15">
         <v>65</v>
       </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -7590,8 +7641,11 @@
       <c r="E16">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -7607,8 +7661,11 @@
       <c r="E17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -7624,8 +7681,11 @@
       <c r="E18">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -7641,8 +7701,11 @@
       <c r="E19">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -7658,8 +7721,11 @@
       <c r="E20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -7675,8 +7741,11 @@
       <c r="E21">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -7692,8 +7761,11 @@
       <c r="E22">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -7709,8 +7781,11 @@
       <c r="E23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -7726,8 +7801,11 @@
       <c r="E24">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -7743,8 +7821,11 @@
       <c r="E25">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -7760,8 +7841,11 @@
       <c r="E26">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -7777,8 +7861,11 @@
       <c r="E27">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -7794,8 +7881,11 @@
       <c r="E28">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -7811,8 +7901,11 @@
       <c r="E29">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -7828,8 +7921,11 @@
       <c r="E30">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -7845,8 +7941,11 @@
       <c r="E31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -7862,8 +7961,11 @@
       <c r="E32">
         <v>44</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -7879,8 +7981,11 @@
       <c r="E33">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -7896,8 +8001,11 @@
       <c r="E34">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -7913,8 +8021,11 @@
       <c r="E35">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -7930,8 +8041,11 @@
       <c r="E36">
         <v>61</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -7947,8 +8061,11 @@
       <c r="E37">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -7964,8 +8081,11 @@
       <c r="E38">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -7981,8 +8101,11 @@
       <c r="E39">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -7998,8 +8121,11 @@
       <c r="E40">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -8015,8 +8141,11 @@
       <c r="E41">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -8032,8 +8161,11 @@
       <c r="E42">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -8049,8 +8181,11 @@
       <c r="E43">
         <v>53</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -8066,8 +8201,11 @@
       <c r="E44">
         <v>49</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -8083,8 +8221,11 @@
       <c r="E45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -8100,8 +8241,11 @@
       <c r="E46">
         <v>69</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -8114,8 +8258,11 @@
       <c r="E47">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -8131,8 +8278,11 @@
       <c r="E48">
         <v>21</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -8148,8 +8298,11 @@
       <c r="E49">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -8165,8 +8318,11 @@
       <c r="E50">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -8182,8 +8338,11 @@
       <c r="E51">
         <v>29</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -8199,8 +8358,11 @@
       <c r="E52">
         <v>27</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -8216,8 +8378,11 @@
       <c r="E53">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -8233,8 +8398,11 @@
       <c r="E54">
         <v>71</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -8250,8 +8418,11 @@
       <c r="E55">
         <v>47</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -8267,8 +8438,11 @@
       <c r="E56">
         <v>61</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -8284,8 +8458,11 @@
       <c r="E57">
         <v>38</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -8301,8 +8478,11 @@
       <c r="E58">
         <v>19</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -8318,8 +8498,11 @@
       <c r="E59">
         <v>73</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -8335,8 +8518,11 @@
       <c r="E60">
         <v>67</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -8349,8 +8535,11 @@
       <c r="E61">
         <v>27</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -8366,8 +8555,11 @@
       <c r="E62">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -8383,8 +8575,11 @@
       <c r="E63">
         <v>49</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -8399,6 +8594,9 @@
       </c>
       <c r="E64">
         <v>62</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -8417,6 +8615,9 @@
       <c r="E65">
         <v>36</v>
       </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
@@ -8434,6 +8635,9 @@
       <c r="E66">
         <v>42</v>
       </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
@@ -8451,6 +8655,9 @@
       <c r="E67">
         <v>69</v>
       </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
@@ -8467,6 +8674,9 @@
       </c>
       <c r="E68">
         <v>32</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -8485,6 +8695,9 @@
       <c r="E69">
         <v>3</v>
       </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
@@ -8501,6 +8714,9 @@
       </c>
       <c r="E70">
         <v>24</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -8519,6 +8735,9 @@
       <c r="E71">
         <v>73</v>
       </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
@@ -8536,6 +8755,9 @@
       <c r="E72">
         <v>48</v>
       </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
@@ -8552,6 +8774,9 @@
       </c>
       <c r="E73">
         <v>55</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -8570,6 +8795,9 @@
       <c r="E74">
         <v>48</v>
       </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
@@ -8586,6 +8814,9 @@
       </c>
       <c r="E75">
         <v>51</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -16102,8 +16333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView topLeftCell="C54" zoomScale="97" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView topLeftCell="C275" zoomScale="97" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16111,7 +16342,7 @@
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77.21875" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="0.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16151,6 +16382,9 @@
       <c r="E2">
         <v>4</v>
       </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -16168,6 +16402,9 @@
       <c r="E3">
         <v>16</v>
       </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -16185,6 +16422,9 @@
       <c r="E4">
         <v>54</v>
       </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -16202,6 +16442,9 @@
       <c r="E5">
         <v>32</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -16219,6 +16462,9 @@
       <c r="E6">
         <v>69</v>
       </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -16235,6 +16481,9 @@
       </c>
       <c r="E7">
         <v>63</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -16253,6 +16502,9 @@
       <c r="E8">
         <v>34</v>
       </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -16270,6 +16522,9 @@
       <c r="E9">
         <v>13</v>
       </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -16287,6 +16542,9 @@
       <c r="E10">
         <v>37</v>
       </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -16304,6 +16562,9 @@
       <c r="E11">
         <v>5</v>
       </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -16321,6 +16582,9 @@
       <c r="E12">
         <v>17</v>
       </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -16337,6 +16601,9 @@
       </c>
       <c r="E13">
         <v>47</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -16355,6 +16622,9 @@
       <c r="E14">
         <v>3</v>
       </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -16372,6 +16642,9 @@
       <c r="E15">
         <v>5</v>
       </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -16389,8 +16662,11 @@
       <c r="E16">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -16406,8 +16682,11 @@
       <c r="E17">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1387</v>
       </c>
@@ -16423,8 +16702,11 @@
       <c r="E18">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -16440,8 +16722,11 @@
       <c r="E19">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -16457,8 +16742,11 @@
       <c r="E20">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -16474,8 +16762,11 @@
       <c r="E21">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -16491,8 +16782,11 @@
       <c r="E22">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -16508,8 +16802,11 @@
       <c r="E23">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -16525,8 +16822,11 @@
       <c r="E24">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -16542,8 +16842,11 @@
       <c r="E25">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -16559,8 +16862,11 @@
       <c r="E26">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -16576,8 +16882,11 @@
       <c r="E27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -16593,8 +16902,11 @@
       <c r="E28">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -16610,8 +16922,11 @@
       <c r="E29">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -16627,8 +16942,11 @@
       <c r="E30">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -16644,8 +16962,11 @@
       <c r="E31">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -16661,8 +16982,11 @@
       <c r="E32">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -16678,8 +17002,11 @@
       <c r="E33">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -16695,8 +17022,11 @@
       <c r="E34">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -16712,8 +17042,11 @@
       <c r="E35">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1388</v>
       </c>
@@ -16729,8 +17062,11 @@
       <c r="E36">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -16746,8 +17082,11 @@
       <c r="E37">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -16763,8 +17102,11 @@
       <c r="E38">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -16780,8 +17122,11 @@
       <c r="E39">
         <v>65</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -16797,8 +17142,11 @@
       <c r="E40">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -16814,8 +17162,11 @@
       <c r="E41">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -16831,8 +17182,11 @@
       <c r="E42">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -16848,8 +17202,11 @@
       <c r="E43">
         <v>38</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1387</v>
       </c>
@@ -16865,8 +17222,11 @@
       <c r="E44">
         <v>64</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -16882,8 +17242,11 @@
       <c r="E45">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -16899,8 +17262,11 @@
       <c r="E46">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -16916,8 +17282,11 @@
       <c r="E47">
         <v>39</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -16933,8 +17302,11 @@
       <c r="E48">
         <v>29</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -16950,8 +17322,11 @@
       <c r="E49">
         <v>32</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -16967,8 +17342,11 @@
       <c r="E50">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -16984,8 +17362,11 @@
       <c r="E51">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -17001,8 +17382,11 @@
       <c r="E52">
         <v>43</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1389</v>
       </c>
@@ -17018,8 +17402,11 @@
       <c r="E53">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -17035,8 +17422,11 @@
       <c r="E54">
         <v>38</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -17052,8 +17442,11 @@
       <c r="E55">
         <v>64</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -17069,8 +17462,11 @@
       <c r="E56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -17086,8 +17482,11 @@
       <c r="E57">
         <v>31</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -17103,8 +17502,11 @@
       <c r="E58">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -17120,8 +17522,11 @@
       <c r="E59">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -17137,8 +17542,11 @@
       <c r="E60">
         <v>25</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -17154,8 +17562,11 @@
       <c r="E61">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -17171,8 +17582,11 @@
       <c r="E62">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -17188,8 +17602,11 @@
       <c r="E63">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -17205,8 +17622,11 @@
       <c r="E64">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -17222,8 +17642,11 @@
       <c r="E65">
         <v>19</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -17239,8 +17662,11 @@
       <c r="E66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -17256,8 +17682,11 @@
       <c r="E67">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -17273,8 +17702,11 @@
       <c r="E68">
         <v>62</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -17290,8 +17722,11 @@
       <c r="E69">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -17307,8 +17742,11 @@
       <c r="E70">
         <v>54</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -17324,8 +17762,11 @@
       <c r="E71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -17341,8 +17782,11 @@
       <c r="E72">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -17358,8 +17802,11 @@
       <c r="E73">
         <v>42</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -17375,8 +17822,11 @@
       <c r="E74">
         <v>64</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -17392,8 +17842,11 @@
       <c r="E75">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -17409,8 +17862,11 @@
       <c r="E76">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -17426,8 +17882,11 @@
       <c r="E77">
         <v>21</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -17443,8 +17902,11 @@
       <c r="E78">
         <v>41</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>40</v>
       </c>
@@ -17460,8 +17922,11 @@
       <c r="E79">
         <v>41</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -17477,8 +17942,11 @@
       <c r="E80">
         <v>32</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -17494,8 +17962,11 @@
       <c r="E81">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -17511,8 +17982,11 @@
       <c r="E82">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -17528,8 +18002,11 @@
       <c r="E83">
         <v>18</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -17545,8 +18022,11 @@
       <c r="E84">
         <v>61</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -17562,8 +18042,11 @@
       <c r="E85">
         <v>25</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>29</v>
       </c>
@@ -17579,8 +18062,11 @@
       <c r="E86">
         <v>29</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -17596,8 +18082,11 @@
       <c r="E87">
         <v>32</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -17613,8 +18102,11 @@
       <c r="E88">
         <v>59</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -17630,8 +18122,11 @@
       <c r="E89">
         <v>25</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -17647,8 +18142,11 @@
       <c r="E90">
         <v>25</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>1387</v>
       </c>
@@ -17664,8 +18162,11 @@
       <c r="E91">
         <v>26</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>1387</v>
       </c>
@@ -17681,8 +18182,11 @@
       <c r="E92">
         <v>63</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -17698,8 +18202,11 @@
       <c r="E93">
         <v>68</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -17715,8 +18222,11 @@
       <c r="E94">
         <v>22</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>35</v>
       </c>
@@ -17732,8 +18242,11 @@
       <c r="E95">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -17749,8 +18262,11 @@
       <c r="E96">
         <v>54</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -17766,8 +18282,11 @@
       <c r="E97">
         <v>42</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -17783,8 +18302,11 @@
       <c r="E98">
         <v>36</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -17800,8 +18322,11 @@
       <c r="E99">
         <v>52</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -17817,8 +18342,11 @@
       <c r="E100">
         <v>52</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -17834,8 +18362,11 @@
       <c r="E101">
         <v>68</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1390</v>
       </c>
@@ -17851,8 +18382,11 @@
       <c r="E102">
         <v>72</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -17868,8 +18402,11 @@
       <c r="E103">
         <v>45</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -17885,8 +18422,11 @@
       <c r="E104">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -17902,8 +18442,11 @@
       <c r="E105">
         <v>10</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -17919,8 +18462,11 @@
       <c r="E106">
         <v>13</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -17936,8 +18482,11 @@
       <c r="E107">
         <v>44</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -17953,8 +18502,11 @@
       <c r="E108">
         <v>54</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -17970,8 +18522,11 @@
       <c r="E109">
         <v>15</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>35</v>
       </c>
@@ -17987,8 +18542,11 @@
       <c r="E110">
         <v>14</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -18004,8 +18562,11 @@
       <c r="E111">
         <v>16</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -18021,8 +18582,11 @@
       <c r="E112">
         <v>55</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -18038,8 +18602,11 @@
       <c r="E113">
         <v>65</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -18055,8 +18622,11 @@
       <c r="E114">
         <v>28</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -18072,8 +18642,11 @@
       <c r="E115">
         <v>40</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -18089,8 +18662,11 @@
       <c r="E116">
         <v>60</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -18106,8 +18682,11 @@
       <c r="E117">
         <v>65</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -18123,8 +18702,11 @@
       <c r="E118">
         <v>25</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -18140,8 +18722,11 @@
       <c r="E119">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -18157,8 +18742,11 @@
       <c r="E120">
         <v>31</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -18174,8 +18762,11 @@
       <c r="E121">
         <v>71</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -18191,8 +18782,11 @@
       <c r="E122">
         <v>38</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>23</v>
       </c>
@@ -18208,8 +18802,11 @@
       <c r="E123">
         <v>54</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>12</v>
       </c>
@@ -18225,8 +18822,11 @@
       <c r="E124">
         <v>59</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -18242,8 +18842,11 @@
       <c r="E125">
         <v>55</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -18259,8 +18862,11 @@
       <c r="E126">
         <v>50</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -18276,8 +18882,11 @@
       <c r="E127">
         <v>17</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -18293,8 +18902,11 @@
       <c r="E128">
         <v>38</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -18310,8 +18922,11 @@
       <c r="E129">
         <v>75</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -18327,8 +18942,11 @@
       <c r="E130">
         <v>42</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -18344,8 +18962,11 @@
       <c r="E131">
         <v>10</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -18361,8 +18982,11 @@
       <c r="E132">
         <v>53</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -18378,8 +19002,11 @@
       <c r="E133">
         <v>34</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -18395,8 +19022,11 @@
       <c r="E134">
         <v>59</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -18412,8 +19042,11 @@
       <c r="E135">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -18429,8 +19062,11 @@
       <c r="E136">
         <v>29</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -18446,8 +19082,11 @@
       <c r="E137">
         <v>27</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -18460,8 +19099,11 @@
       <c r="E138">
         <v>51</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -18477,8 +19119,11 @@
       <c r="E139">
         <v>47</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -18494,8 +19139,11 @@
       <c r="E140">
         <v>22</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -18511,8 +19159,11 @@
       <c r="E141">
         <v>18</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -18528,8 +19179,11 @@
       <c r="E142">
         <v>67</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -18545,8 +19199,11 @@
       <c r="E143">
         <v>33</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -18562,8 +19219,11 @@
       <c r="E144">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -18579,8 +19239,11 @@
       <c r="E145">
         <v>30</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -18596,8 +19259,11 @@
       <c r="E146">
         <v>71</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -18613,8 +19279,11 @@
       <c r="E147">
         <v>16</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -18630,8 +19299,11 @@
       <c r="E148">
         <v>51</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>10</v>
       </c>
@@ -18647,8 +19319,11 @@
       <c r="E149">
         <v>41</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -18664,8 +19339,11 @@
       <c r="E150">
         <v>67</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -18681,8 +19359,11 @@
       <c r="E151">
         <v>41</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -18698,8 +19379,11 @@
       <c r="E152">
         <v>70</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -18715,8 +19399,11 @@
       <c r="E153">
         <v>73</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -18732,8 +19419,11 @@
       <c r="E154">
         <v>72</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>12</v>
       </c>
@@ -18749,8 +19439,11 @@
       <c r="E155">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -18766,8 +19459,11 @@
       <c r="E156">
         <v>62</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -18783,8 +19479,11 @@
       <c r="E157">
         <v>8</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -18800,8 +19499,11 @@
       <c r="E158">
         <v>35</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -18817,8 +19519,11 @@
       <c r="E159">
         <v>31</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -18834,8 +19539,11 @@
       <c r="E160">
         <v>31</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -18851,8 +19559,11 @@
       <c r="E161">
         <v>35</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -18868,8 +19579,11 @@
       <c r="E162">
         <v>49</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -18885,8 +19599,11 @@
       <c r="E163">
         <v>44</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>10</v>
       </c>
@@ -18902,8 +19619,11 @@
       <c r="E164">
         <v>11</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -18916,8 +19636,11 @@
       <c r="E165">
         <v>20</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -18933,8 +19656,11 @@
       <c r="E166">
         <v>23</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -18950,8 +19676,11 @@
       <c r="E167">
         <v>48</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -18967,8 +19696,11 @@
       <c r="E168">
         <v>58</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>12</v>
       </c>
@@ -18984,8 +19716,11 @@
       <c r="E169">
         <v>34</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -19001,8 +19736,11 @@
       <c r="E170">
         <v>16</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -19018,8 +19756,11 @@
       <c r="E171">
         <v>48</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -19035,8 +19776,11 @@
       <c r="E172">
         <v>4</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -19052,8 +19796,11 @@
       <c r="E173">
         <v>43</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>1391</v>
       </c>
@@ -19069,8 +19816,11 @@
       <c r="E174">
         <v>75</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -19086,8 +19836,11 @@
       <c r="E175">
         <v>31</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>8</v>
       </c>
@@ -19103,8 +19856,11 @@
       <c r="E176">
         <v>48</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -19120,8 +19876,11 @@
       <c r="E177">
         <v>7</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -19137,8 +19896,11 @@
       <c r="E178">
         <v>37</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -19154,8 +19916,11 @@
       <c r="E179">
         <v>22</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>10</v>
       </c>
@@ -19171,8 +19936,11 @@
       <c r="E180">
         <v>15</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -19188,8 +19956,11 @@
       <c r="E181">
         <v>50</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -19205,8 +19976,11 @@
       <c r="E182">
         <v>47</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>6</v>
       </c>
@@ -19222,8 +19996,11 @@
       <c r="E183">
         <v>61</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -19239,8 +20016,11 @@
       <c r="E184">
         <v>43</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -19256,8 +20036,11 @@
       <c r="E185">
         <v>49</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>40</v>
       </c>
@@ -19273,8 +20056,11 @@
       <c r="E186">
         <v>33</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -19290,8 +20076,11 @@
       <c r="E187">
         <v>72</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>42</v>
       </c>
@@ -19307,8 +20096,11 @@
       <c r="E188">
         <v>21</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -19324,8 +20116,11 @@
       <c r="E189">
         <v>39</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -19341,8 +20136,11 @@
       <c r="E190">
         <v>20</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -19358,8 +20156,11 @@
       <c r="E191">
         <v>47</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>10</v>
       </c>
@@ -19375,8 +20176,11 @@
       <c r="E192">
         <v>35</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>8</v>
       </c>
@@ -19392,8 +20196,11 @@
       <c r="E193">
         <v>73</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>8</v>
       </c>
@@ -19409,8 +20216,11 @@
       <c r="E194">
         <v>28</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>8</v>
       </c>
@@ -19426,8 +20236,11 @@
       <c r="E195">
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -19443,8 +20256,11 @@
       <c r="E196">
         <v>43</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -19460,8 +20276,11 @@
       <c r="E197">
         <v>73</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>14</v>
       </c>
@@ -19477,8 +20296,11 @@
       <c r="E198">
         <v>49</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -19494,8 +20316,11 @@
       <c r="E199">
         <v>57</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>10</v>
       </c>
@@ -19511,8 +20336,11 @@
       <c r="E200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>10</v>
       </c>
@@ -19528,8 +20356,11 @@
       <c r="E201">
         <v>51</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>8</v>
       </c>
@@ -19545,8 +20376,11 @@
       <c r="E202">
         <v>47</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -19562,8 +20396,11 @@
       <c r="E203">
         <v>32</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>16</v>
       </c>
@@ -19579,8 +20416,11 @@
       <c r="E204">
         <v>53</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -19596,8 +20436,11 @@
       <c r="E205">
         <v>43</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>8</v>
       </c>
@@ -19613,8 +20456,11 @@
       <c r="E206">
         <v>59</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>8</v>
       </c>
@@ -19630,8 +20476,11 @@
       <c r="E207">
         <v>21</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -19647,8 +20496,11 @@
       <c r="E208">
         <v>18</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -19664,8 +20516,11 @@
       <c r="E209">
         <v>64</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>8</v>
       </c>
@@ -19681,8 +20536,11 @@
       <c r="E210">
         <v>20</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>10</v>
       </c>
@@ -19698,8 +20556,11 @@
       <c r="E211">
         <v>12</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -19715,8 +20576,11 @@
       <c r="E212">
         <v>14</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>6</v>
       </c>
@@ -19732,8 +20596,11 @@
       <c r="E213">
         <v>19</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>8</v>
       </c>
@@ -19749,8 +20616,11 @@
       <c r="E214">
         <v>70</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>1392</v>
       </c>
@@ -19766,8 +20636,11 @@
       <c r="E215">
         <v>58</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>8</v>
       </c>
@@ -19783,8 +20656,11 @@
       <c r="E216">
         <v>56</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>33</v>
       </c>
@@ -19800,8 +20676,11 @@
       <c r="E217">
         <v>54</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -19817,8 +20696,11 @@
       <c r="E218">
         <v>50</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>8</v>
       </c>
@@ -19834,8 +20716,11 @@
       <c r="E219">
         <v>46</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>8</v>
       </c>
@@ -19851,8 +20736,11 @@
       <c r="E220">
         <v>65</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>8</v>
       </c>
@@ -19868,8 +20756,11 @@
       <c r="E221">
         <v>37</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -19885,8 +20776,11 @@
       <c r="E222">
         <v>44</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>8</v>
       </c>
@@ -19902,8 +20796,11 @@
       <c r="E223">
         <v>39</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>8</v>
       </c>
@@ -19919,8 +20816,11 @@
       <c r="E224">
         <v>14</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>40</v>
       </c>
@@ -19936,8 +20836,11 @@
       <c r="E225">
         <v>40</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -19953,8 +20856,11 @@
       <c r="E226">
         <v>13</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>8</v>
       </c>
@@ -19970,8 +20876,11 @@
       <c r="E227">
         <v>42</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>10</v>
       </c>
@@ -19987,8 +20896,11 @@
       <c r="E228">
         <v>27</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>8</v>
       </c>
@@ -20004,8 +20916,11 @@
       <c r="E229">
         <v>45</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>8</v>
       </c>
@@ -20021,8 +20936,11 @@
       <c r="E230">
         <v>61</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>18</v>
       </c>
@@ -20038,8 +20956,11 @@
       <c r="E231">
         <v>17</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>8</v>
       </c>
@@ -20052,8 +20973,11 @@
       <c r="E232">
         <v>51</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>8</v>
       </c>
@@ -20069,8 +20993,11 @@
       <c r="E233">
         <v>5</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -20086,8 +21013,11 @@
       <c r="E234">
         <v>66</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -20103,8 +21033,11 @@
       <c r="E235">
         <v>23</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>10</v>
       </c>
@@ -20120,8 +21053,11 @@
       <c r="E236">
         <v>65</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>10</v>
       </c>
@@ -20137,8 +21073,11 @@
       <c r="E237">
         <v>56</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>8</v>
       </c>
@@ -20154,8 +21093,11 @@
       <c r="E238">
         <v>58</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>22</v>
       </c>
@@ -20171,8 +21113,11 @@
       <c r="E239">
         <v>33</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -20188,8 +21133,11 @@
       <c r="E240">
         <v>52</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>8</v>
       </c>
@@ -20205,8 +21153,11 @@
       <c r="E241">
         <v>43</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -20222,8 +21173,11 @@
       <c r="E242">
         <v>29</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>8</v>
       </c>
@@ -20239,8 +21193,11 @@
       <c r="E243">
         <v>28</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -20256,8 +21213,11 @@
       <c r="E244">
         <v>6</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>8</v>
       </c>
@@ -20273,8 +21233,11 @@
       <c r="E245">
         <v>68</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>6</v>
       </c>
@@ -20290,8 +21253,11 @@
       <c r="E246">
         <v>70</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>12</v>
       </c>
@@ -20307,8 +21273,11 @@
       <c r="E247">
         <v>24</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>8</v>
       </c>
@@ -20324,8 +21293,11 @@
       <c r="E248">
         <v>72</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>8</v>
       </c>
@@ -20341,8 +21313,11 @@
       <c r="E249">
         <v>53</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>8</v>
       </c>
@@ -20358,8 +21333,11 @@
       <c r="E250">
         <v>63</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>10</v>
       </c>
@@ -20375,8 +21353,11 @@
       <c r="E251">
         <v>46</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>12</v>
       </c>
@@ -20392,8 +21373,11 @@
       <c r="E252">
         <v>39</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>8</v>
       </c>
@@ -20409,8 +21393,11 @@
       <c r="E253">
         <v>31</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -20426,8 +21413,11 @@
       <c r="E254">
         <v>66</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>6</v>
       </c>
@@ -20443,8 +21433,11 @@
       <c r="E255">
         <v>23</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>6</v>
       </c>
@@ -20460,8 +21453,11 @@
       <c r="E256">
         <v>75</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -20477,8 +21473,11 @@
       <c r="E257">
         <v>45</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>8</v>
       </c>
@@ -20494,8 +21493,11 @@
       <c r="E258">
         <v>18</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>8</v>
       </c>
@@ -20511,8 +21513,11 @@
       <c r="E259">
         <v>4</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -20528,8 +21533,11 @@
       <c r="E260">
         <v>27</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>8</v>
       </c>
@@ -20545,8 +21553,11 @@
       <c r="E261">
         <v>6</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>10</v>
       </c>
@@ -20562,8 +21573,11 @@
       <c r="E262">
         <v>12</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>6</v>
       </c>
@@ -20579,8 +21593,11 @@
       <c r="E263">
         <v>2</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>6</v>
       </c>
@@ -20596,8 +21613,11 @@
       <c r="E264">
         <v>50</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>8</v>
       </c>
@@ -20613,8 +21633,11 @@
       <c r="E265">
         <v>23</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>10</v>
       </c>
@@ -20630,8 +21653,11 @@
       <c r="E266">
         <v>14</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>6</v>
       </c>
@@ -20647,8 +21673,11 @@
       <c r="E267">
         <v>57</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>8</v>
       </c>
@@ -20664,8 +21693,11 @@
       <c r="E268">
         <v>4</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -20681,8 +21713,11 @@
       <c r="E269">
         <v>71</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>10</v>
       </c>
@@ -20698,8 +21733,11 @@
       <c r="E270">
         <v>67</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>16</v>
       </c>
@@ -20715,8 +21753,11 @@
       <c r="E271">
         <v>17</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>10</v>
       </c>
@@ -20732,8 +21773,11 @@
       <c r="E272">
         <v>51</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>8</v>
       </c>
@@ -20749,8 +21793,11 @@
       <c r="E273">
         <v>26</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1393</v>
       </c>
@@ -20766,8 +21813,11 @@
       <c r="E274">
         <v>17</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>12</v>
       </c>
@@ -20783,8 +21833,11 @@
       <c r="E275">
         <v>72</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1394</v>
       </c>
@@ -20800,8 +21853,11 @@
       <c r="E276">
         <v>70</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>8</v>
       </c>
@@ -20817,8 +21873,11 @@
       <c r="E277">
         <v>47</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -20834,8 +21893,11 @@
       <c r="E278">
         <v>15</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>12</v>
       </c>
@@ -20851,8 +21913,11 @@
       <c r="E279">
         <v>42</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>8</v>
       </c>
@@ -20868,8 +21933,11 @@
       <c r="E280">
         <v>39</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>12</v>
       </c>
@@ -20885,8 +21953,11 @@
       <c r="E281">
         <v>32</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>8</v>
       </c>
@@ -20902,8 +21973,11 @@
       <c r="E282">
         <v>36</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>10</v>
       </c>
@@ -20919,8 +21993,11 @@
       <c r="E283">
         <v>25</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -20936,8 +22013,11 @@
       <c r="E284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>23</v>
       </c>
@@ -20953,8 +22033,11 @@
       <c r="E285">
         <v>41</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>8</v>
       </c>
@@ -20970,8 +22053,11 @@
       <c r="E286">
         <v>73</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1395</v>
       </c>
@@ -20987,8 +22073,11 @@
       <c r="E287">
         <v>16</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>38</v>
       </c>
@@ -21004,8 +22093,11 @@
       <c r="E288">
         <v>6</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>10</v>
       </c>
@@ -21021,8 +22113,11 @@
       <c r="E289">
         <v>26</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>16</v>
       </c>
@@ -21038,8 +22133,11 @@
       <c r="E290">
         <v>72</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1396</v>
       </c>
@@ -21055,8 +22153,11 @@
       <c r="E291">
         <v>52</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>8</v>
       </c>
@@ -21072,8 +22173,11 @@
       <c r="E292">
         <v>47</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -21089,8 +22193,11 @@
       <c r="E293">
         <v>28</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>10</v>
       </c>
@@ -21106,8 +22213,11 @@
       <c r="E294">
         <v>52</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>8</v>
       </c>
@@ -21123,8 +22233,11 @@
       <c r="E295">
         <v>24</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>8</v>
       </c>
@@ -21140,8 +22253,11 @@
       <c r="E296">
         <v>39</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>8</v>
       </c>
@@ -21157,8 +22273,11 @@
       <c r="E297">
         <v>72</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>6</v>
       </c>
@@ -21174,8 +22293,11 @@
       <c r="E298">
         <v>56</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>23</v>
       </c>
@@ -21191,8 +22313,11 @@
       <c r="E299">
         <v>17</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>10</v>
       </c>
@@ -21208,8 +22333,11 @@
       <c r="E300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>6</v>
       </c>
@@ -21224,6 +22352,9 @@
       </c>
       <c r="E301">
         <v>63</v>
+      </c>
+      <c r="F301" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
